--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_01_end.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_01_end.xlsx
@@ -35,7 +35,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Months later, after a failed assassination attempt, a messenger returns from Kazdel with a mission from an organization known as "Babel." In the midst of turmoil, the mercenaries accept their fate.
+    <t xml:space="preserve">Months later, after a failed assassination attempt, a messenger returns from Kazdel with a mission from an organization known as 'Babel.' In the midst of turmoil, the mercenaries accept their fate.
 </t>
   </si>
   <si>
